--- a/User_Posts.xlsx
+++ b/User_Posts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\lifelines\LifelinesS25\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE2B409-6021-4E20-82C9-F1DE73542FAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{084D75F8-4DF7-4E12-BB51-599FDFB1236F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19000" yWindow="0" windowWidth="9890" windowHeight="17370" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2040" yWindow="6940" windowWidth="21600" windowHeight="12670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
@@ -629,8 +629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -816,8 +816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -981,5 +981,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>